--- a/data/trans_camb/PCS12_SP_R3-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/PCS12_SP_R3-Estudios-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>1.991708625826089</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>11.12613358705155</v>
+        <v>11.12613358705154</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>4.026418584970404</v>
@@ -664,7 +664,7 @@
         <v>3.081580986406546</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>11.41013857166836</v>
+        <v>11.41013857166837</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.4653596395682592</v>
+        <v>-0.1259382889620844</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.3974938678888552</v>
+        <v>-0.3685117519367613</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.003666409044656</v>
+        <v>6.006182934077917</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.2902637327500366</v>
+        <v>-0.7138920993579315</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.188982186766983</v>
+        <v>-2.106199714317093</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>7.404499347512554</v>
+        <v>6.934211628830445</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8268345039447992</v>
+        <v>1.104551078605233</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.01111094812436026</v>
+        <v>-0.2948217222416893</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>8.372874182715965</v>
+        <v>8.241511304266199</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.218836829179835</v>
+        <v>8.651142458355652</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.306938478719976</v>
+        <v>8.363157708218182</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15.36985278232234</v>
+        <v>15.70177958479141</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.70937872425984</v>
+        <v>6.94917005383891</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.457416780734795</v>
+        <v>6.390988904033323</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>14.88260901751885</v>
+        <v>14.71189824001159</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>6.894194900428757</v>
+        <v>7.006591284597</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>6.044793763152799</v>
+        <v>5.993687320982298</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>14.42853079925519</v>
+        <v>14.7311328227832</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.04062932650252853</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2269645812431894</v>
+        <v>0.2269645812431892</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.09698635979962476</v>
@@ -769,7 +769,7 @@
         <v>0.07422758364341911</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.2748417188928554</v>
+        <v>0.2748417188928556</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.01398780448711216</v>
+        <v>-0.002882326985282509</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.01340181024290626</v>
+        <v>-0.01057517872227908</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1781169652844075</v>
+        <v>0.1776318721967639</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.005812943013543109</v>
+        <v>-0.01365638297668578</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.04188436033175082</v>
+        <v>-0.04194907127393686</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1465238706917617</v>
+        <v>0.1360811423219275</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0194539168068882</v>
+        <v>0.02655548453039168</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.000639730086202812</v>
+        <v>-0.007042082581948163</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.1961052310262639</v>
+        <v>0.1909038644868155</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2739438260473627</v>
+        <v>0.2909689165529134</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2795342871842726</v>
+        <v>0.2778613091263842</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.506863701267988</v>
+        <v>0.5240297146573026</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1637079530589505</v>
+        <v>0.1490731958761198</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1379951495155399</v>
+        <v>0.134090247955023</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3154663415363197</v>
+        <v>0.3179728772182452</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1725323919657585</v>
+        <v>0.1774357591224666</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1476414181923816</v>
+        <v>0.1475766762277914</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.3607573577448415</v>
+        <v>0.3708923877884419</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>3.234776969284657</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9.701464780521803</v>
+        <v>9.70146478052181</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>2.953888417366074</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2916573510839722</v>
+        <v>0.1066527685332663</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.270082091276724</v>
+        <v>1.165846842867712</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7.74380624393466</v>
+        <v>7.637671590424293</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1584245961637711</v>
+        <v>0.3085152503041881</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.476651178839703</v>
+        <v>1.55041163283051</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>7.562058469751165</v>
+        <v>7.650275043191611</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8780276277033342</v>
+        <v>0.792094600031337</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.035975101658726</v>
+        <v>1.814677413492199</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>8.215819222162201</v>
+        <v>8.325732274943126</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.143540462681819</v>
+        <v>4.185323149258557</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.185659974722203</v>
+        <v>5.20165206755577</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12.1103568717706</v>
+        <v>11.68727310554562</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.39268844861077</v>
+        <v>5.430532847008402</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.423814575398892</v>
+        <v>6.44665321960818</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>12.35404964471101</v>
+        <v>12.27605743690783</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.984900770818704</v>
+        <v>4.053861490238234</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>5.183468445814037</v>
+        <v>5.268255082391262</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>11.39188025598141</v>
+        <v>11.59942486495425</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.3749997498171641</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>1.124666986348746</v>
+        <v>1.124666986348747</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.2179237891559981</v>
@@ -974,7 +974,7 @@
         <v>0.2888970368982665</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7414413191362171</v>
+        <v>0.7414413191362174</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.226558038060912</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.02642230710486657</v>
+        <v>0.006762726458032363</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1194756246389195</v>
+        <v>0.1214180629164623</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.7892399621301478</v>
+        <v>0.7798231664946096</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.01008942684083222</v>
+        <v>0.02029411387544856</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1006648652276904</v>
+        <v>0.1010004085427593</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5075203825472603</v>
+        <v>0.5154504105821482</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07309621984026481</v>
+        <v>0.05794328139341651</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1680325014840182</v>
+        <v>0.1563012860533608</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.680460107728954</v>
+        <v>0.695842478959007</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.5424779782146846</v>
+        <v>0.5415544085235785</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.6775690598200775</v>
+        <v>0.6663028361211299</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.543814042652756</v>
+        <v>1.559473986692683</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4365916767057034</v>
+        <v>0.4315019132726566</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5203824409135358</v>
+        <v>0.5218943911581397</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.024026167835622</v>
+        <v>1.014231230296074</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3824788003663425</v>
+        <v>0.3850863362455429</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5033052190314817</v>
+        <v>0.5172272494169178</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.113283424942235</v>
+        <v>1.128496521448405</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>0.901125156156643</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5.240531444037122</v>
+        <v>5.240531444037125</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-2.876648453688965</v>
@@ -1092,7 +1092,7 @@
         <v>0.6582701317708564</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>5.039547645810706</v>
+        <v>5.039547645810703</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.577739583774147</v>
+        <v>-1.786753410265548</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.620398901171232</v>
+        <v>-2.666469664862946</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.89795207783069</v>
+        <v>1.716484623941984</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-7.360027896281876</v>
+        <v>-7.498668301023617</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.711316214093147</v>
+        <v>-4.226539796132632</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1001189933140678</v>
+        <v>0.6391763412231205</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-3.349176185418334</v>
+        <v>-3.05871222148718</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.520644760395342</v>
+        <v>-1.9906092201333</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.433512356349108</v>
+        <v>2.550819523149565</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.12791268970439</v>
+        <v>5.972841170202435</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.219293788385222</v>
+        <v>4.478213489766635</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.983706768878728</v>
+        <v>8.712917283361037</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.164933599295579</v>
+        <v>0.9470159111274582</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.05124096211456</v>
+        <v>4.701518597322706</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>8.030639943003376</v>
+        <v>8.325032799165546</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.228995143883091</v>
+        <v>2.598163022926502</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.43494068099132</v>
+        <v>3.623344082335188</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>7.581916625743171</v>
+        <v>7.666227185515067</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.1183180173931723</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.688083432483009</v>
+        <v>0.6880834324830093</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.2315747642758232</v>
@@ -1197,7 +1197,7 @@
         <v>0.06687165635155734</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.5119522853503308</v>
+        <v>0.5119522853503304</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1783037356069773</v>
+        <v>-0.1838293692567639</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2736297199520634</v>
+        <v>-0.2958351939154318</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.2058479307656771</v>
+        <v>0.1630680759278561</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5012974669961171</v>
+        <v>-0.5042781364617019</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3113712253211441</v>
+        <v>-0.2939832318258175</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.002034310466838531</v>
+        <v>0.03855032335480987</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3017238204381606</v>
+        <v>-0.2697279520495502</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2263995467212476</v>
+        <v>-0.1856999448620849</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.205819620228935</v>
+        <v>0.230530322432158</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.005523459376479</v>
+        <v>1.001005113311017</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.7275834608572083</v>
+        <v>0.7395449880241106</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.542702520672984</v>
+        <v>1.449090126548919</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1248085759487466</v>
+        <v>0.1002710379571993</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3761603338247788</v>
+        <v>0.4669722516218945</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8008983503296082</v>
+        <v>0.8540484627375001</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2497717262400178</v>
+        <v>0.317977042320874</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.418482587037114</v>
+        <v>0.4528013987779809</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.9173383598490241</v>
+        <v>0.9338791523115461</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>0.9415734721142127</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5.412030574176397</v>
+        <v>5.412030574176399</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>1.893571511130221</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2725728742849188</v>
+        <v>0.3154122314958145</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.737805960277922</v>
+        <v>-0.9156252509276496</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.562963357588727</v>
+        <v>3.548937389601561</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.3576959166629</v>
+        <v>-0.314594055089355</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.159321482250097</v>
+        <v>-3.311975802887247</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1.155714778548109</v>
+        <v>1.181299411635778</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.4412278794582326</v>
+        <v>0.6768723504322666</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.513711520247496</v>
+        <v>-1.541988375122475</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.884066692252479</v>
+        <v>2.837195400121321</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.940866244850571</v>
+        <v>3.967689532761458</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.73207761295887</v>
+        <v>2.728221835720497</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.178898428032279</v>
+        <v>7.370505808857894</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.051353216637228</v>
+        <v>3.834641893759257</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9852751546461109</v>
+        <v>0.9356162054942538</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.130615646271829</v>
+        <v>5.080064318411236</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.373965661503071</v>
+        <v>3.589233577648796</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.336758396171493</v>
+        <v>1.438577303957434</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>5.535246342817314</v>
+        <v>5.614002203302564</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.05959489040357627</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.3425429650270813</v>
+        <v>0.3425429650270815</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.06962189119149739</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.01514294587182366</v>
+        <v>0.01879192706313003</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.04633638329963157</v>
+        <v>-0.05594047996553132</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.2102079486765427</v>
+        <v>0.2119265984437336</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.01263419304940649</v>
+        <v>-0.01078834060418731</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1129875462733792</v>
+        <v>-0.1194953109821632</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.04104680878635023</v>
+        <v>0.0425310191843138</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02056994839486268</v>
+        <v>0.03046476110448275</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.06704377047409955</v>
+        <v>-0.06851573322940684</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1267489998352341</v>
+        <v>0.1282143573038825</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2657254878372566</v>
+        <v>0.2655718661282675</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.184055767676693</v>
+        <v>0.1852817662582952</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.4788447388595772</v>
+        <v>0.4928176729364618</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1543994907852968</v>
+        <v>0.1487526673153533</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.03710175940796041</v>
+        <v>0.03622996393098515</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1989418792942451</v>
+        <v>0.1954601457907896</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1615426671642721</v>
+        <v>0.1731733745228899</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.06420168665681458</v>
+        <v>0.06888299181800681</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.263709303161517</v>
+        <v>0.272634699898906</v>
       </c>
     </row>
     <row r="28">
